--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-11792_External_Return_Lookup.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-11792_External_Return_Lookup.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkama\.openl\user-workspace\DEFAULT\CRET_Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926F2F70-5AF3-4C52-BD80-D564186304DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA78073-5316-4498-B7A6-3A4DEB45921C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="15560" xr2:uid="{7E5704FA-F7FB-4878-A32F-806D7E090EEB}"/>
+    <workbookView xWindow="8480" yWindow="1740" windowWidth="23000" windowHeight="17540" xr2:uid="{7E5704FA-F7FB-4878-A32F-806D7E090EEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="60">
   <si>
     <t>Age</t>
   </si>
@@ -198,30 +198,23 @@
     <t>Spreadsheet int SizeOfMySmartLookupResult( Integer age, String smokerIndicator, Double height, int weight, String gender)</t>
   </si>
   <si>
-    <t>= MySmartLookup(age, smoredIndicator, height, weight, gender)</t>
-  </si>
-  <si>
-    <t>= MySmartLookup(age, smokerIndicator, height, weight, gender)</t>
-  </si>
-  <si>
-    <t>= MySmartLookup(age, smokerIndicator, height, weight, gender).size()</t>
-  </si>
-  <si>
     <t>= length(MySmartLookup(age, smokerIndicator, height, weight, gender))</t>
   </si>
   <si>
     <t>26</t>
+  </si>
+  <si>
+    <t>/Weight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1" rgb="000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -356,7 +349,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -375,6 +368,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -420,7 +414,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -737,77 +730,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD994A99-1194-4D5E-B99A-9908AC0A2424}">
   <dimension ref="B4:R74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" customWidth="true" width="15.54296875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="10.1796875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="17.7265625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="23.453125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="21.81640625" collapsed="true"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.1796875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.7265625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.453125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="21.81640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="19" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15" t="s">
+      <c r="J6" s="15"/>
+      <c r="K6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
       <c r="Q6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="5:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="19"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>23</v>
@@ -829,16 +822,16 @@
       </c>
     </row>
     <row r="8" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="21"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="7" t="s">
         <v>6</v>
       </c>
@@ -859,10 +852,10 @@
       </c>
     </row>
     <row r="9" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="22"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="7" t="s">
         <v>7</v>
       </c>
@@ -883,10 +876,10 @@
       </c>
     </row>
     <row r="10" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="22"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="7" t="s">
         <v>48</v>
       </c>
@@ -904,10 +897,10 @@
       </c>
     </row>
     <row r="11" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="22"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="7" t="s">
         <v>49</v>
       </c>
@@ -925,10 +918,10 @@
       </c>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="22"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="7" t="s">
         <v>50</v>
       </c>
@@ -949,10 +942,10 @@
       </c>
     </row>
     <row r="13" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="22"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="7" t="s">
         <v>6</v>
       </c>
@@ -976,10 +969,10 @@
       </c>
     </row>
     <row r="14" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="22"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="7" t="s">
         <v>7</v>
       </c>
@@ -1003,10 +996,10 @@
       </c>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="22"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="7" t="s">
         <v>48</v>
       </c>
@@ -1030,10 +1023,10 @@
       </c>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="22"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1057,10 +1050,10 @@
       </c>
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="22"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="7" t="s">
         <v>50</v>
       </c>
@@ -1078,10 +1071,10 @@
       </c>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="22"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="7" t="s">
         <v>6</v>
       </c>
@@ -1099,10 +1092,10 @@
       </c>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="22"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="7" t="s">
         <v>7</v>
       </c>
@@ -1120,10 +1113,10 @@
       </c>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="22"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="7" t="s">
         <v>48</v>
       </c>
@@ -1141,10 +1134,10 @@
       </c>
     </row>
     <row r="21" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="22"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="7" t="s">
         <v>49</v>
       </c>
@@ -1162,10 +1155,10 @@
       </c>
     </row>
     <row r="22" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="22"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="7" t="s">
         <v>50</v>
       </c>
@@ -1186,10 +1179,10 @@
       </c>
     </row>
     <row r="23" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="22"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="7" t="s">
         <v>6</v>
       </c>
@@ -1213,10 +1206,10 @@
       </c>
     </row>
     <row r="24" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="22"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="7" t="s">
         <v>7</v>
       </c>
@@ -1240,10 +1233,10 @@
       </c>
     </row>
     <row r="25" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="22"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="7" t="s">
         <v>48</v>
       </c>
@@ -1267,10 +1260,10 @@
       </c>
     </row>
     <row r="26" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="22"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="7" t="s">
         <v>49</v>
       </c>
@@ -1294,10 +1287,10 @@
       </c>
     </row>
     <row r="27" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="22"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="7" t="s">
         <v>50</v>
       </c>
@@ -1315,10 +1308,10 @@
       </c>
     </row>
     <row r="28" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="22"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="7" t="s">
         <v>6</v>
       </c>
@@ -1336,10 +1329,10 @@
       </c>
     </row>
     <row r="29" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="22"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="7" t="s">
         <v>7</v>
       </c>
@@ -1357,10 +1350,10 @@
       </c>
     </row>
     <row r="30" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="22"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="23"/>
       <c r="I30" s="7" t="s">
         <v>48</v>
       </c>
@@ -1381,10 +1374,10 @@
       </c>
     </row>
     <row r="31" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="22"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="7" t="s">
         <v>49</v>
       </c>
@@ -1408,10 +1401,10 @@
       </c>
     </row>
     <row r="32" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="22"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="23"/>
       <c r="I32" s="7" t="s">
         <v>50</v>
       </c>
@@ -1435,10 +1428,10 @@
       </c>
     </row>
     <row r="33" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="22"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="23"/>
       <c r="I33" s="7" t="s">
         <v>6</v>
       </c>
@@ -1462,12 +1455,12 @@
       </c>
     </row>
     <row r="34" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10" t="s">
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="22"/>
+      <c r="H34" s="23"/>
       <c r="I34" s="7" t="s">
         <v>7</v>
       </c>
@@ -1491,10 +1484,10 @@
       </c>
     </row>
     <row r="35" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="22"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="7" t="s">
         <v>48</v>
       </c>
@@ -1512,10 +1505,10 @@
       </c>
     </row>
     <row r="36" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="22"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="7" t="s">
         <v>49</v>
       </c>
@@ -1536,10 +1529,10 @@
       </c>
     </row>
     <row r="37" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="22"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="7" t="s">
         <v>50</v>
       </c>
@@ -1563,10 +1556,10 @@
       </c>
     </row>
     <row r="38" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="22"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="23"/>
       <c r="I38" s="7" t="s">
         <v>6</v>
       </c>
@@ -1590,10 +1583,10 @@
       </c>
     </row>
     <row r="39" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="22"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="23"/>
       <c r="I39" s="7" t="s">
         <v>7</v>
       </c>
@@ -1611,10 +1604,10 @@
       </c>
     </row>
     <row r="40" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="22"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="23"/>
       <c r="I40" s="7" t="s">
         <v>48</v>
       </c>
@@ -1632,10 +1625,10 @@
       </c>
     </row>
     <row r="41" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="22"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="23"/>
       <c r="I41" s="7" t="s">
         <v>49</v>
       </c>
@@ -1653,10 +1646,10 @@
       </c>
     </row>
     <row r="42" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="22"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="23"/>
       <c r="I42" s="7" t="s">
         <v>50</v>
       </c>
@@ -1674,10 +1667,10 @@
       </c>
     </row>
     <row r="43" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="22"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="23"/>
       <c r="I43" s="7" t="s">
         <v>6</v>
       </c>
@@ -1695,10 +1688,10 @@
       </c>
     </row>
     <row r="44" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="22"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="23"/>
       <c r="I44" s="7" t="s">
         <v>7</v>
       </c>
@@ -1716,10 +1709,10 @@
       </c>
     </row>
     <row r="45" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="22"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="23"/>
       <c r="I45" s="7" t="s">
         <v>48</v>
       </c>
@@ -1737,10 +1730,10 @@
       </c>
     </row>
     <row r="46" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="22"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="23"/>
       <c r="I46" s="7" t="s">
         <v>49</v>
       </c>
@@ -1758,10 +1751,10 @@
       </c>
     </row>
     <row r="47" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="22"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="23"/>
       <c r="I47" s="7" t="s">
         <v>50</v>
       </c>
@@ -1779,10 +1772,10 @@
       </c>
     </row>
     <row r="48" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="22"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="23"/>
       <c r="I48" s="7" t="s">
         <v>6</v>
       </c>
@@ -1800,10 +1793,10 @@
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="22"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="23"/>
       <c r="I49" s="7" t="s">
         <v>7</v>
       </c>
@@ -1821,10 +1814,10 @@
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="22"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="23"/>
       <c r="I50" s="7" t="s">
         <v>48</v>
       </c>
@@ -1842,10 +1835,10 @@
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="22"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="23"/>
       <c r="I51" s="7" t="s">
         <v>49</v>
       </c>
@@ -1863,10 +1856,10 @@
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="22"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="23"/>
       <c r="I52" s="7" t="s">
         <v>50</v>
       </c>
@@ -1884,10 +1877,10 @@
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="22"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="23"/>
       <c r="I53" s="7" t="s">
         <v>6</v>
       </c>
@@ -1905,10 +1898,10 @@
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="22"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="23"/>
       <c r="I54" s="7" t="s">
         <v>7</v>
       </c>
@@ -1926,10 +1919,10 @@
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="22"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="23"/>
       <c r="I55" s="7" t="s">
         <v>48</v>
       </c>
@@ -1947,10 +1940,10 @@
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="22"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="23"/>
       <c r="I56" s="7" t="s">
         <v>49</v>
       </c>
@@ -1968,10 +1961,10 @@
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="22"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="23"/>
       <c r="I57" s="7" t="s">
         <v>50</v>
       </c>
@@ -1989,10 +1982,10 @@
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="22"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="23"/>
       <c r="I58" s="7" t="s">
         <v>49</v>
       </c>
@@ -2010,10 +2003,10 @@
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="22"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="23"/>
       <c r="I59" s="7" t="s">
         <v>50</v>
       </c>
@@ -2031,15 +2024,15 @@
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B62" s="3" t="s">
@@ -2101,7 +2094,7 @@
         <v>4</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2122,7 +2115,7 @@
         <v>55</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
